--- a/Datos/Database by set/Set with text box/Xlsx sets/Sega Dreamcast Cards (PSDG).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Sega Dreamcast Cards (PSDG).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,336 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arden Angel</t>
+          <t>('Arden Angel', ['{4}{W}{W}', 'Creature — Angel', 'Flying', 'At the beginning of your upkeep, if Arden Angel is in your graveyard, choose a number from 1 to 4 at random. If the chosen number is 1, return Arden Angel from your graveyard to the battlefield.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{W}{W}</t>
+          <t>("Ashuza's Breath", ['{1}{R}', 'Sorcery', 'For each creature, choose a number from 0 to 2 at random. Ashuza’s Breath deals that much damage to that creature.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Angel</t>
+          <t>('Camato Scout', ['{1}{U}{U}', 'Creature — Merfolk', 'As Camato Scout enters the battlefield, choose a basic land type at random. Camato Scout has landwalk of the chosen type.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>("Hapato's Might", ['{2}{B}', 'Instant', 'Target creature gets +X/+0 until end of turn, where X is a number from 0 to 6 chosen at random.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>At the beginning of your upkeep, if Arden Angel is in your graveyard, choose a number from 1 to 4 at random. If the chosen number is 1, return Arden Angel from your graveyard to the battlefield.</t>
+          <t>('Lydari Druid', ['{2}{G}', 'Creature — Druid', 'When Lydari Druid enters the battlefield, for each land on the battlefield, choose a basic land type at random. Those lands become the land types chosen this way. (This effect lasts indefinitely.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Lydari Elephant', ['{4}{G}', 'Creature — Elephant', 'As Lydari Elephant enters the battlefield, choose two numbers from 3 to 7 at random. Lydari Elephant’s power is equal to the first number chosen and its toughness equal to the second number chosen.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ashuza's Breath</t>
+          <t>('Murgish Cemetery', ['{4}{B}{B}', 'Enchantment', '{3}{B}, Discard a card: Create an X/X black Zombie creature token, where X is a number from 2 to 6 chosen at random.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{1}{R}</t>
+          <t>("Saji's Torrent", ['{1}{U}', 'Instant', 'Tap X creatures, where X is a number from 0 to 5 chosen at random.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Tornellan Protector', ['{2}{W}', 'Creature — Cleric', '{T}: Until end of turn, each time damage is dealt to target creature or player, prevent X of that damage, where X is a number from 1 to 3 chosen at random each time.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>For each creature, choose a number from 0 to 2 at random. Ashuza’s Breath deals that much damage to that creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Camato Scout</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{1}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Merfolk</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>As Camato Scout enters the battlefield, choose a basic land type at random. Camato Scout has landwalk of the chosen type.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Hapato's Might</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Target creature gets +X/+0 until end of turn, where X is a number from 0 to 6 chosen at random.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Lydari Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Creature — Druid</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>When Lydari Druid enters the battlefield, for each land on the battlefield, choose a basic land type at random. Those lands become the land types chosen this way. (This effect lasts indefinitely.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Lydari Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{4}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>As Lydari Elephant enters the battlefield, choose two numbers from 3 to 7 at random. Lydari Elephant’s power is equal to the first number chosen and its toughness equal to the second number chosen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Murgish Cemetery</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{3}{B}, Discard a card: Create an X/X black Zombie creature token, where X is a number from 2 to 6 chosen at random.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Saji's Torrent</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tap X creatures, where X is a number from 0 to 5 chosen at random.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tornellan Protector</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Creature — Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>{T}: Until end of turn, each time damage is dealt to target creature or player, prevent X of that damage, where X is a number from 1 to 3 chosen at random each time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Velican Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>{5}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Whenever Velican Dragon attacks or blocks, it gets +X/+0 until end of turn, where X is a number from 0 to 5 chosen at random.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>5/5</t>
+          <t>('Velican Dragon', ['{5}{R}{R}', 'Creature — Dragon', 'Flying', 'Whenever Velican Dragon attacks or blocks, it gets +X/+0 until end of turn, where X is a number from 0 to 5 chosen at random.', '5/5'])</t>
         </is>
       </c>
     </row>
